--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,31 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
@@ -85,19 +73,7 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
@@ -106,193 +82,184 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>sharing</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -650,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -769,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -819,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -869,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -969,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,31 +1004,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1119,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7012987012987013</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4583333333333333</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4117647058823529</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3648068669527897</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,651 +1354,435 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.78125</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L19">
+        <v>91</v>
+      </c>
+      <c r="M19">
+        <v>91</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L20">
+        <v>79</v>
+      </c>
+      <c r="M20">
+        <v>79</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="L23">
+        <v>101</v>
+      </c>
+      <c r="M23">
+        <v>101</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K16">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L16">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>45</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="K25">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.6625</v>
+      </c>
+      <c r="L26">
+        <v>106</v>
+      </c>
+      <c r="M26">
+        <v>106</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.64</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>18</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>0.875</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L28">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18">
-        <v>0.875</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L19">
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>11</v>
       </c>
-      <c r="M19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C20">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>66</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L20">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>45</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>36</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L22">
-        <v>45</v>
-      </c>
-      <c r="M22">
-        <v>45</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.175</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>14</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>66</v>
-      </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>97</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>179</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="K32">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L32">
         <v>54</v>
       </c>
-      <c r="K25">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L27">
-        <v>42</v>
-      </c>
-      <c r="M27">
-        <v>42</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>12</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29">
-        <v>0.7</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L31">
-        <v>27</v>
-      </c>
-      <c r="M31">
-        <v>27</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
       <c r="M32">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2043,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.6923076923076923</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2069,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6712328767123288</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="M34">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2095,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.64</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2121,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2147,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.631578947368421</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2173,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2199,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5882352941176471</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2225,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5868544600938967</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L40">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M40">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2251,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5833333333333334</v>
+        <v>0.425</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2277,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5757575757575758</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2303,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2329,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5416666666666666</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2355,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.5384615384615384</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2381,15 +2132,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.5357142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="L46">
         <v>15</v>
@@ -2407,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.5208333333333334</v>
+        <v>0.359375</v>
       </c>
       <c r="L47">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2433,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.5142857142857142</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2459,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.4666666666666667</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2485,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4573643410852713</v>
+        <v>0.2</v>
       </c>
       <c r="L50">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2511,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.45</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2537,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.45</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2563,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.4239130434782609</v>
+        <v>0.04250559284116331</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2589,47 +2340,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>53</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.4166666666666667</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.40625</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2641,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2667,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.3043478260869565</v>
+        <v>0.01859504132231405</v>
       </c>
       <c r="L57">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2693,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>16</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.2702702702702703</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2719,137 +2470,85 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>27</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.2368421052631579</v>
+        <v>0.01495327102803738</v>
       </c>
       <c r="L59">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>29</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.04146341463414634</v>
+        <v>0.009668063164679342</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>393</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.01643192488262911</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62">
-        <v>0.008912655971479501</v>
-      </c>
-      <c r="L62">
-        <v>10</v>
-      </c>
-      <c r="M62">
-        <v>11</v>
-      </c>
-      <c r="N62">
-        <v>0.91</v>
-      </c>
-      <c r="O62">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K63">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="L63">
-        <v>7</v>
-      </c>
-      <c r="M63">
-        <v>10</v>
-      </c>
-      <c r="N63">
-        <v>0.7</v>
-      </c>
-      <c r="O63">
-        <v>0.3</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1554</v>
+        <v>3174</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -52,27 +49,33 @@
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -91,166 +94,169 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>beauty</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>growth</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>important</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increased</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -704,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -736,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -786,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -836,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.613013698630137</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6111111111111112</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.9322033898305084</v>
@@ -986,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3421052631578947</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2275132275132275</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2228682170542636</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C12">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>401</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2133333333333333</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8636363636363636</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1688311688311688</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>410</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8170731707317073</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1275167785234899</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06746031746031746</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8055555555555556</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,12 +1384,36 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>234</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>0.78125</v>
@@ -1407,148 +1437,148 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L19">
+        <v>63</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="L19">
-        <v>91</v>
-      </c>
-      <c r="M19">
-        <v>91</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.7452830188679245</v>
-      </c>
-      <c r="L20">
-        <v>79</v>
-      </c>
-      <c r="M20">
-        <v>79</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K23">
-        <v>0.7112676056338029</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,12 +1590,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>0.7083333333333334</v>
@@ -1589,70 +1619,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="10:17">
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>75</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
         <v>0.7058823529411765</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>36</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>36</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.6625</v>
-      </c>
-      <c r="L26">
-        <v>106</v>
-      </c>
-      <c r="M26">
-        <v>106</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,99 +1694,99 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.66875</v>
+      </c>
+      <c r="L29">
+        <v>107</v>
+      </c>
+      <c r="M29">
+        <v>107</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.625</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="L28">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.6170212765957447</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="M29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L30">
-        <v>17</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5833333333333334</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.574468085106383</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.58</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5587467362924282</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.5396825396825397</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.5357142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5294117647058824</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.4911764705882353</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L38">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>173</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.4719101123595505</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4305084745762712</v>
+        <v>0.45</v>
       </c>
       <c r="L40">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="M40">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.425</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.3891213389121339</v>
+        <v>0.425</v>
       </c>
       <c r="L43">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.3846153846153846</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.3835616438356164</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.359375</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.3255813953488372</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.2923076923076923</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.1805555555555556</v>
+        <v>0.265625</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2288,15 +2318,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.0430622009569378</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
         <v>18</v>
@@ -2314,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>400</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.04250559284116331</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L53">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,47 +2370,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>856</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.03888888888888889</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>865</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.03846153846153846</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.02</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>637</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.01859504132231405</v>
+        <v>0.04809843400447427</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>950</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K58">
-        <v>0.01614763552479815</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2470,84 +2500,110 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K59">
-        <v>0.01495327102803738</v>
+        <v>0.01756198347107438</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N59">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>2108</v>
+        <v>951</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K60">
-        <v>0.009668063164679342</v>
+        <v>0.01214385801027557</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>3073</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K61">
-        <v>0.007194244604316547</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M61">
+        <v>35</v>
+      </c>
+      <c r="N61">
+        <v>0.91</v>
+      </c>
+      <c r="O61">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62">
+        <v>0.006261740763932373</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
         <v>27</v>
       </c>
-      <c r="N61">
-        <v>0.85</v>
-      </c>
-      <c r="O61">
-        <v>0.15</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
+      <c r="N62">
+        <v>0.74</v>
+      </c>
+      <c r="O62">
+        <v>0.26</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
         <v>3174</v>
       </c>
     </row>
